--- a/Documentos-AstronoMy/BackLogAstronoMy.xlsx
+++ b/Documentos-AstronoMy/BackLogAstronoMy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F5E6109-8D4F-4EE4-92F5-5FAD3583F1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{839F5A6F-1141-4A94-B92F-89A20A77E919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,155 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">BackLog AstronoMy                  </t>
+  </si>
+  <si>
+    <t>REQUISITO</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
+    <t>PESO             (SIGLA)</t>
+  </si>
+  <si>
+    <t>PESO             (NUMERO)    TOTAL-111</t>
+  </si>
+  <si>
+    <t>PRAZO</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Documento do projeto</t>
+  </si>
+  <si>
+    <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ferramenta de gestão</t>
+  </si>
+  <si>
+    <t>Criação de um Trello para melhor gestão de atividades</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>GitHub criado</t>
+  </si>
+  <si>
+    <t>Criação de um GitHub para versionamento do código</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica</t>
+  </si>
+  <si>
+    <t>Desenvolvimento da modelagem lógica do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Scripts do banco de dados</t>
+  </si>
+  <si>
+    <t>Criação de tables, inserção de valores e etc.</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Relacionamentos entre tabelas</t>
+  </si>
+  <si>
+    <t>Implementar os relacionamento entre tabelas, de acordo com a modelagem</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>desenvolvimento de uma HomePage para o site</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>desenvolvimento de uma tela de Login para o site</t>
+  </si>
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de uma tela de cadastro para o site</t>
+  </si>
+  <si>
+    <t>Foruns</t>
+  </si>
+  <si>
+    <t>Criação dos Foruns para compartilhar conhecimento</t>
+  </si>
+  <si>
+    <t>Pagínas de Interação</t>
+  </si>
+  <si>
+    <t>Criação das demais páginas relacionadas a Astronomia</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Implementação de dashboards no site</t>
+  </si>
+  <si>
+    <t>Aplicação de calculos</t>
+  </si>
+  <si>
+    <t>Utilização de calculos no JavaScript</t>
+  </si>
+  <si>
+    <t>Banco de dados instalado na VM</t>
+  </si>
+  <si>
+    <t>Instalação do servidor na VM</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>API funcional</t>
+  </si>
+  <si>
+    <t>Modificar a API conforme necessário para o funcionamento do projeto</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,19 +186,211 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="8" tint="0.79998168889431442"/>
+      <name val="Corbel"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -61,8 +399,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,12 +802,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="46.5">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:8" ht="51.75">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="26.25">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="48.75">
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3</v>
+      </c>
+      <c r="H5" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="48.75">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="48.75">
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="32.25">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10">
+        <v>8</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="64.5">
+      <c r="B9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="20">
+        <v>5</v>
+      </c>
+      <c r="H9" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="32.25">
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="32.25">
+      <c r="B11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="20">
+        <v>8</v>
+      </c>
+      <c r="H11" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="48.75">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="48.75">
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="20">
+        <v>8</v>
+      </c>
+      <c r="H13" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="48.75">
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10">
+        <v>8</v>
+      </c>
+      <c r="H14" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="32.25">
+      <c r="B15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="20">
+        <v>5</v>
+      </c>
+      <c r="H15" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="32.25">
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+      <c r="H16" s="11">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="32.25">
+      <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="20">
+        <v>13</v>
+      </c>
+      <c r="H17" s="21">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="64.5">
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="15">
+        <v>21</v>
+      </c>
+      <c r="H18" s="16">
+        <v>45357</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>